--- a/data/trans_camb/P18_5_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_5_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,68</t>
+          <t>-14,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,91</t>
+          <t>-15,19</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,14</t>
+          <t>-14,09</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>64,59</t>
+          <t>-14,01</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-17,99</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,84</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,77</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,26</t>
+          <t>-9,7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>-10,49</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-12,74</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-12,36</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>59,78</t>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-16,52</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-12,29</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-12,2</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-13,33</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,13; -9,62</t>
+          <t>-20,42; -8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,23; -10,26</t>
+          <t>-20,12; -10,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,67; -9,33</t>
+          <t>-19,23; -9,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>59,13; 68,94</t>
+          <t>-19,72; -8,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-21,97; -14,03</t>
+          <t>-5,23; 3,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,53; -5,68</t>
+          <t>-1,02; 5,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -6,47</t>
+          <t>-22,09; -14,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,27; 59,03</t>
+          <t>-14,07; -5,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,32; -13,37</t>
+          <t>-14,57; -6,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-15,75; -8,74</t>
+          <t>-17,15; -7,99</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; -8,97</t>
+          <t>-6,0; 2,36</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>56,33; 62,96</t>
+          <t>-2,83; 4,25</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; -12,83</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-15,81; -9,36</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-15,66; -9,07</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-16,76; -9,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 1,22</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-0,91; 3,89</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-59,36%</t>
+          <t>-56,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-56,45%</t>
+          <t>-57,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-53,55%</t>
+          <t>-53,36%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>244,58%</t>
+          <t>-53,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-60,17%</t>
+          <t>-8,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-32,9%</t>
+          <t>26,74%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-36,0%</t>
+          <t>-59,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>184,78%</t>
+          <t>-32,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-59,81%</t>
+          <t>-35,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-43,31%</t>
+          <t>-42,6%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-43,79%</t>
+          <t>-11,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>211,72%</t>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-58,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-43,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-43,2%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-47,22%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>-10,28%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-71,73; -37,14</t>
+          <t>-70,73; -33,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-67,2; -43,4</t>
+          <t>-67,75; -44,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-65,76; -38,02</t>
+          <t>-64,81; -38,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>191,26; 301,5</t>
+          <t>-65,4; -36,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,52; -50,04</t>
+          <t>-36,44; 28,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-45,18; -20,76</t>
+          <t>-12,13; 76,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-46,38; -23,06</t>
+          <t>-68,49; -50,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>154,8; 216,51</t>
+          <t>-43,16; -19,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,25; -49,65</t>
+          <t>-45,25; -21,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-51,66; -33,15</t>
+          <t>-54,07; -28,64</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-51,56; -33,74</t>
+          <t>-31,21; 16,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>182,65; 245,76</t>
+          <t>-17,57; 33,2</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-66,08; -47,16</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-51,65; -35,09</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-52,04; -34,43</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-55,87; -37,01</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-27,99; 9,57</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-6,86; 35,6</t>
         </is>
       </c>
     </row>
@@ -932,12 +1100,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,39</t>
+          <t>-15,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-9,63</t>
+          <t>-9,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -947,47 +1115,77 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>64,38</t>
+          <t>-11,54</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-17,92</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,24</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,42</t>
+          <t>-18,11</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,81</t>
+          <t>-11,97</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-17,15</t>
+          <t>-11,86</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-10,97</t>
+          <t>-9,46</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-12,25</t>
+          <t>-8,72</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>57,26</t>
+          <t>-7,72</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-17,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-10,83</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-11,98</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-10,55</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,53; -11,57</t>
+          <t>-21,3; -10,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -4,5</t>
+          <t>-14,93; -4,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,9; -6,84</t>
+          <t>-17,32; -6,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,31; 70,46</t>
+          <t>-17,17; -5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,63; -13,1</t>
+          <t>-6,8; 4,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,12; -7,5</t>
+          <t>-9,25; 3,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; -7,17</t>
+          <t>-23,16; -13,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>42,75; 56,26</t>
+          <t>-17,18; -7,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,56; -13,71</t>
+          <t>-17,12; -6,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-14,62; -7,31</t>
+          <t>-15,8; -3,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -8,75</t>
+          <t>-15,42; -2,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>52,28; 61,91</t>
+          <t>-14,88; -0,32</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; -13,54</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-14,35; -7,34</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; -8,04</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; -5,93</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; -0,94</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-10,11; -0,09</t>
         </is>
       </c>
     </row>
@@ -1068,12 +1296,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-72,12%</t>
+          <t>-69,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-42,37%</t>
+          <t>-42,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1083,47 +1311,77 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>283,34%</t>
+          <t>-50,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-59,11%</t>
+          <t>-7,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-40,36%</t>
+          <t>-20,17%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-40,95%</t>
+          <t>-59,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>164,27%</t>
+          <t>-39,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-64,62%</t>
+          <t>-39,13%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-41,32%</t>
+          <t>-31,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-46,16%</t>
+          <t>-41,81%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>215,69%</t>
+          <t>-38,88%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-64,05%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-40,79%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-45,11%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-39,74%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-30,13%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-30,95%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-82,42; -55,69</t>
+          <t>-81,3; -51,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-58,38; -21,42</t>
+          <t>-58,73; -21,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,26; -34,36</t>
+          <t>-66,07; -33,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>218,12; 376,25</t>
+          <t>-66,14; -26,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-68,94; -45,92</t>
+          <t>-49,13; 53,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,42; -25,92</t>
+          <t>-54,54; 38,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,63; -25,38</t>
+          <t>-70,44; -46,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>130,16; 206,92</t>
+          <t>-52,22; -25,89</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-72,82; -55,39</t>
+          <t>-50,88; -23,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-51,34; -29,48</t>
+          <t>-47,69; -10,2</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-55,59; -34,61</t>
+          <t>-62,59; -10,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>181,3; 258,03</t>
+          <t>-61,45; 0,11</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-72,5; -54,22</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-50,63; -29,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-55,55; -32,71</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-50,71; -24,58</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-51,88; -4,34</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-52,34; -0,61</t>
         </is>
       </c>
     </row>
@@ -1208,60 +1496,90 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,68</t>
+          <t>-6,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-16,63</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-15,2</t>
+          <t>-17,25</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>-13,44</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-15,22</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-16,35</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-11,18</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-7,27</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-11,79</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-6,73</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-5,55</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-9,53</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1276,60 +1594,90 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 3,76</t>
+          <t>-13,63; 2,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,3; 7,76</t>
+          <t>-6,75; 8,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 17,36</t>
+          <t>-4,65; 18,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-11,7; 6,43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-25,56; -6,55</t>
-        </is>
-      </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-23,48; -4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-23,68; -6,12</t>
+          <t>-25,35; -8,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>-22,56; -4,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-23,07; -6,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-24,8; -5,5</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-17,58; -4,27</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-13,91; -1,4</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-12,63; 2,19</t>
-        </is>
-      </c>
       <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-17,43; -5,35</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-12,77; -0,89</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-11,94; 2,79</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-15,75; -2,93</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1344,60 +1692,90 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-39,65%</t>
+          <t>-43,45%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,57%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-18,39%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-56,19%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-47,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,36%</t>
+          <t>-58,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>-45,41%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-51,42%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-55,22%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-50,85%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-33,07%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-26,58%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-53,59%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-30,6%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-25,22%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-43,31%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1412,60 +1790,90 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-74,1; 47,36</t>
+          <t>-74,6; 27,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,39; 75,43</t>
+          <t>-39,51; 96,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,16; 159,23</t>
+          <t>-29,96; 180,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-64,37; 63,91</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-75,53; -25,71</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-68,01; -19,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -24,04</t>
+          <t>-74,57; -33,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>-64,62; -16,47</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-67,8; -25,01</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-75,14; -20,35</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>-68,84; -20,77</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-54,4; -6,79</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-49,61; 13,69</t>
-        </is>
-      </c>
       <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-70,61; -28,83</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-51,45; -2,29</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-48,17; 15,68</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-64,94; -13,39</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,76</t>
+          <t>-14,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-11,03</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-11,16</t>
+          <t>-11,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>66,57</t>
+          <t>-11,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,81</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-11,25</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-11,91</t>
+          <t>-17,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>54,04</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-16,32</t>
+          <t>-11,56</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-11,15</t>
+          <t>-11,9</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-11,55</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>60,21</t>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-16,15</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-11,06</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>-11,33</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-11,79</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>-2,18</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,29; -10,94</t>
+          <t>-17,85; -10,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-14,57; -7,68</t>
+          <t>-14,42; -7,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-14,74; -7,56</t>
+          <t>-14,48; -7,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63,06; 70,01</t>
+          <t>-15,15; -8,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,88; -14,66</t>
+          <t>-3,8; 2,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-14,34; -8,28</t>
+          <t>-1,7; 4,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,97; -8,86</t>
+          <t>-21,19; -15,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>50,48; 57,27</t>
+          <t>-13,96; -7,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,65; -14,02</t>
+          <t>-14,6; -8,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-13,26; -8,89</t>
+          <t>-15,28; -8,29</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-13,83; -9,25</t>
+          <t>-7,17; -0,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>57,66; 62,52</t>
+          <t>-4,79; 1,88</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; -13,7</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-13,54; -8,82</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-13,61; -8,66</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-14,29; -9,06</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 0,2</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,07</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-62,84%</t>
+          <t>-60,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-46,98%</t>
+          <t>-47,34%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-47,53%</t>
+          <t>-47,12%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>283,52%</t>
+          <t>-49,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-59,31%</t>
+          <t>-5,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-37,46%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-39,65%</t>
+          <t>-59,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>179,95%</t>
+          <t>-36,6%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-60,81%</t>
+          <t>-38,5%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-41,55%</t>
+          <t>-39,62%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-43,04%</t>
+          <t>-19,69%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>224,35%</t>
+          <t>-8,53%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-60,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-41,22%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-42,2%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-43,94%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>-14,51%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-0,66%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,112 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-71,82; -49,75</t>
+          <t>-70,61; -46,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-57,14; -35,94</t>
+          <t>-56,77; -36,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,35; -34,8</t>
+          <t>-56,66; -33,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>238,32; 333,58</t>
+          <t>-59,91; -36,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,9; -51,97</t>
+          <t>-27,74; 24,72</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-45,65; -29,16</t>
+          <t>-14,67; 46,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-47,31; -31,36</t>
+          <t>-66,01; -52,49</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>156,14; 206,38</t>
+          <t>-44,29; -27,45</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,31; -54,53</t>
+          <t>-46,15; -30,09</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-47,4; -34,58</t>
+          <t>-48,72; -28,91</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-49,1; -36,23</t>
+          <t>-35,95; -0,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>201,29; 248,3</t>
+          <t>-25,27; 13,45</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-65,46; -52,45</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-47,49; -34,22</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-48,08; -33,82</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-50,87; -35,28</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-30,0; 1,62</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-17,39; 17,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
